--- a/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Reactive Retailers Format" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,38 +34,47 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-28515</t>
-  </si>
-  <si>
-    <t>Likhon Telecom</t>
-  </si>
-  <si>
-    <t>Moukhara Bazar</t>
-  </si>
-  <si>
-    <t>RET-34527</t>
-  </si>
-  <si>
-    <t>Samiha Telecom</t>
-  </si>
-  <si>
     <t>Bagha Bazar</t>
   </si>
   <si>
-    <t>RET-21144</t>
-  </si>
-  <si>
-    <t>Fahim Telecom</t>
-  </si>
-  <si>
-    <t>Abdulpur Bazar</t>
+    <t>RET-20438</t>
+  </si>
+  <si>
+    <t>Ujjal Electronics</t>
+  </si>
+  <si>
+    <t>Mukta Gift Corner</t>
+  </si>
+  <si>
+    <t>RET-21139</t>
+  </si>
+  <si>
+    <t>Dhopapara Bazar</t>
+  </si>
+  <si>
+    <t>Rana Telecom</t>
+  </si>
+  <si>
+    <t>RET-15343</t>
+  </si>
+  <si>
+    <t>Haibatpur Bazar</t>
+  </si>
+  <si>
+    <t>Charghat</t>
+  </si>
+  <si>
+    <t>Sunjit Telecom</t>
+  </si>
+  <si>
+    <t>RET-08806</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -157,6 +167,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -165,24 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,17 +494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
@@ -505,240 +514,246 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="C6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Reactive Retailers Format" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -34,40 +33,22 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>Bagha Bazar</t>
-  </si>
-  <si>
-    <t>RET-20438</t>
-  </si>
-  <si>
-    <t>Ujjal Electronics</t>
-  </si>
-  <si>
-    <t>Mukta Gift Corner</t>
-  </si>
-  <si>
-    <t>RET-21139</t>
-  </si>
-  <si>
-    <t>Dhopapara Bazar</t>
-  </si>
-  <si>
-    <t>Rana Telecom</t>
-  </si>
-  <si>
-    <t>RET-15343</t>
-  </si>
-  <si>
-    <t>Haibatpur Bazar</t>
-  </si>
-  <si>
-    <t>Charghat</t>
-  </si>
-  <si>
-    <t>Sunjit Telecom</t>
-  </si>
-  <si>
-    <t>RET-08806</t>
+    <t>RET-33098</t>
+  </si>
+  <si>
+    <t>Mim Mahim Mobile Center</t>
+  </si>
+  <si>
+    <t>Jonail</t>
+  </si>
+  <si>
+    <t>RET-08798</t>
+  </si>
+  <si>
+    <t>Akhee Enterprise</t>
+  </si>
+  <si>
+    <t>Monigram Bazar</t>
   </si>
 </sst>
 </file>
@@ -148,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -158,27 +139,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -191,6 +154,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +477,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,128 +491,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Monigram Bazar</t>
+  </si>
+  <si>
+    <t>Mehedi Maruf Electronics</t>
+  </si>
+  <si>
+    <t>RET-36273</t>
+  </si>
+  <si>
+    <t>Road View</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -145,6 +154,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -154,19 +176,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +487,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,22 +512,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -526,71 +536,77 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>

--- a/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
+++ b/Symphony/2021/Others/Adding New Retailer Format/Reactive retailers format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">RetailerID </t>
   </si>
@@ -33,31 +33,13 @@
     <t xml:space="preserve">RetailerAddress </t>
   </si>
   <si>
-    <t>RET-33098</t>
+    <t>RET-07931</t>
   </si>
   <si>
-    <t>Mim Mahim Mobile Center</t>
+    <t>SR Electronics</t>
   </si>
   <si>
-    <t>Jonail</t>
-  </si>
-  <si>
-    <t>RET-08798</t>
-  </si>
-  <si>
-    <t>Akhee Enterprise</t>
-  </si>
-  <si>
-    <t>Monigram Bazar</t>
-  </si>
-  <si>
-    <t>Mehedi Maruf Electronics</t>
-  </si>
-  <si>
-    <t>RET-36273</t>
-  </si>
-  <si>
-    <t>Road View</t>
+    <t>Chanchkoir Bazar</t>
   </si>
 </sst>
 </file>
@@ -138,35 +120,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -176,7 +169,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +479,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,112 +493,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
